--- a/biology/Zoologie/Pepsinites_contentus/Pepsinites_contentus.xlsx
+++ b/biology/Zoologie/Pepsinites_contentus/Pepsinites_contentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptochilus contentus
 Pepsinites contentus est une espèce fossile d'insectes hyménoptères, de la famille des Pompilidae — des guêpes chasseuses d'araignées — (sous-famille des Pepsinae, tribu des Pepsini).
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pepsinites contentus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le nom Cryptochilus contentus[1],[2]. 
-Fossiles
-L'holotype Ni56 ♀, de l'ère Cénozoïque et de l'époque Éocène (38 à 33,9 Ma), vient des terrains sannoisiens de la formation de Célas dans le Gard, et est conservée dans les collections du musée de Nîmes[1].
-Étyomologie
-L'épithète spécifique latine contentus signifie « contenu ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pepsinites contentus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le nom Cryptochilus contentus,. 
 </t>
         </is>
       </c>
@@ -544,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1] :
-« Bel insecte, couché sur le côté, à thorax et tête noirs, abdomen clair, ailes enfumées, pattes claires. Tête grosse, vue de trois quarts et d'en haut; yeux ovales, non échancrés; front noir, ocelles non visibles; antennes homonomes, articles cylindriques, 2 fois plus longs que larges; la base des antennes n'est pas visible; Thorax noir, ovale, nettement segmenté. Abdomen étranglé à l'avant, mais non pétiolé, très finement velu, coloration jaune pâle. segmentation visible (voir photo). Pattes longues, mais mal conservées. ailes bien développées, n'atteignant pas l'extrémité de l'abdomen; pilosité fine et serrée; nervation de Pompilide (v. figure). »[1].
-Dimensions
-La longueur totale est de 25,5 mm, tandis que la longueur des ailes antérieures est de 14 mm[1].
-Affinités
-« Par sa nervation, l'échantillon appartient certainement aux Pompilides ; la forme de la troisième cell. cubitale rappellle [sic] celle du g. Pseudagenia Köhl, mais sa taille est très supérieure aux espèces actuelles de ce genre. Il se rapproche le plus du g. Cryptochilus : C. pulchellus Eversmann, des régions méditerranéennes, a une grande taille, l'abdomen clair et couvert d'une fine ponctuation microscopique avec de gros points espacés. La nervation des ailes de notre échantillon n'est pourtant pas identique à celle de C. pulchellus. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Ni56 ♀, de l'ère Cénozoïque et de l'époque Éocène (38 à 33,9 Ma), vient des terrains sannoisiens de la formation de Célas dans le Gard, et est conservée dans les collections du musée de Nîmes.
 </t>
         </is>
       </c>
@@ -581,12 +591,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étyomologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine contentus signifie « contenu ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937 :
+« Bel insecte, couché sur le côté, à thorax et tête noirs, abdomen clair, ailes enfumées, pattes claires. Tête grosse, vue de trois quarts et d'en haut; yeux ovales, non échancrés; front noir, ocelles non visibles; antennes homonomes, articles cylindriques, 2 fois plus longs que larges; la base des antennes n'est pas visible; Thorax noir, ovale, nettement segmenté. Abdomen étranglé à l'avant, mais non pétiolé, très finement velu, coloration jaune pâle. segmentation visible (voir photo). Pattes longues, mais mal conservées. ailes bien développées, n'atteignant pas l'extrémité de l'abdomen; pilosité fine et serrée; nervation de Pompilide (v. figure). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 25,5 mm, tandis que la longueur des ailes antérieures est de 14 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Par sa nervation, l'échantillon appartient certainement aux Pompilides ; la forme de la troisième cell. cubitale rappellle [sic] celle du g. Pseudagenia Köhl, mais sa taille est très supérieure aux espèces actuelles de ce genre. Il se rapproche le plus du g. Cryptochilus : C. pulchellus Eversmann, des régions méditerranéennes, a une grande taille, l'abdomen clair et couvert d'une fine ponctuation microscopique avec de gros points espacés. La nervation des ailes de notre échantillon n'est pourtant pas identique à celle de C. pulchellus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pepsinites_contentus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les Cryptochylus chassent de grosses Lycoses. »[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les Cryptochylus chassent de grosses Lycoses. ».
 </t>
         </is>
       </c>
